--- a/valid_excel.xlsx
+++ b/valid_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -34,58 +34,13 @@
     <t>SALARY</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>ATOBRAL</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>"2022-03-22"</t>
+    <t>Gideon</t>
   </si>
   <si>
     <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>"2022-03-23"</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>"2022-03-24"</t>
-  </si>
-  <si>
-    <t>Computer Engineer</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>"2022-03-25"</t>
-  </si>
-  <si>
-    <t>Mobile Developer</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>"2022-03-26"</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>"2022-03-27"</t>
-  </si>
-  <si>
-    <t>"2022-03-28"</t>
   </si>
 </sst>
 </file>
@@ -1036,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.86" customWidth="1"/>
     <col min="2" max="2" width="18.7133333333333" customWidth="1"/>
@@ -1081,139 +1036,48 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>44637</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44638</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
+    <row r="3" spans="3:7">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
+    <row r="4" spans="3:7">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
+    <row r="5" spans="7:7">
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>700</v>
-      </c>
+    <row r="6" spans="7:7">
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>700</v>
-      </c>
+    <row r="7" spans="7:7">
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
+    <row r="8" spans="7:7">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/valid_excel.xlsx
+++ b/valid_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Gideon</t>
   </si>
   <si>
+    <t>"2022-03-12"</t>
+  </si>
+  <si>
+    <t>"2022-03-13"</t>
+  </si>
+  <si>
     <t>Software Engineer</t>
   </si>
 </sst>
@@ -49,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,14 +74,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -83,30 +81,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,14 +105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,36 +116,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,22 +128,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,52 +421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,153 +483,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +1000,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1036,14 +1042,14 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>44637</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44638</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>105</v>
@@ -1053,15 +1059,11 @@
     <row r="3" spans="3:7">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="7:7">
